--- a/Josh's Benchmarks/Benchmark Spreadsheet.xlsx
+++ b/Josh's Benchmarks/Benchmark Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="0" windowWidth="20180" windowHeight="15000" tabRatio="500"/>
+    <workbookView xWindow="1800" yWindow="0" windowWidth="20180" windowHeight="15000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,6 +238,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,13 +624,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
